--- a/data/trans_dic/VUL_DEP-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,86</t>
+          <t>0,57; 2,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,67</t>
+          <t>2,19; 6,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,08</t>
+          <t>0,62; 3,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,2</t>
+          <t>0,96; 2,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,72</t>
+          <t>3,34; 8,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,91</t>
+          <t>1,07; 3,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,91</t>
+          <t>0,91; 2,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,96</t>
+          <t>3,28; 6,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,13</t>
+          <t>1,05; 2,78</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,83</t>
+          <t>1,18; 4,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,28</t>
+          <t>2,35; 6,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,36</t>
+          <t>1,27; 5,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,62</t>
+          <t>1,57; 4,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,96</t>
+          <t>3,53; 8,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,06</t>
+          <t>0,62; 2,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,43</t>
+          <t>1,75; 3,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,31</t>
+          <t>3,41; 6,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,46</t>
+          <t>1,16; 3,16</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,01</t>
+          <t>1,44; 3,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,0</t>
+          <t>0,58; 7,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,05</t>
+          <t>1,66; 6,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,11</t>
+          <t>3,88; 9,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 12,83</t>
+          <t>5,65; 14,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,0</t>
+          <t>2,48; 10,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,46</t>
+          <t>2,35; 4,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,65</t>
+          <t>1,24; 8,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,85</t>
+          <t>2,32; 6,15</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,95</t>
+          <t>1,88; 4,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,24</t>
+          <t>3,88; 7,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,45</t>
+          <t>0,9; 3,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,59</t>
+          <t>3,3; 6,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 8,87</t>
+          <t>2,1; 9,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,76</t>
+          <t>3,08; 7,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,23</t>
+          <t>2,97; 4,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,96</t>
+          <t>3,19; 7,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 4,66</t>
+          <t>2,27; 4,62</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,34</t>
+          <t>0,79; 3,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,4</t>
+          <t>3,06; 9,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,8</t>
+          <t>0,37; 3,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,2</t>
+          <t>3,92; 7,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 13,68</t>
+          <t>6,24; 14,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,3</t>
+          <t>2,36; 7,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,0</t>
+          <t>3,04; 5,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 11,01</t>
+          <t>6,59; 11,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,44</t>
+          <t>1,63; 4,59</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,4</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 10,31</t>
+          <t>2,78; 13,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,69</t>
+          <t>0,0; 18,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,33</t>
+          <t>2,44; 5,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,88; 10,19</t>
+          <t>6,91; 11,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,58</t>
+          <t>0,0; 39,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,54</t>
+          <t>2,01; 4,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,21; 9,48</t>
+          <t>6,24; 11,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,66</t>
+          <t>0,0; 22,03</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,69</t>
+          <t>1,63; 2,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,66</t>
+          <t>3,04; 5,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,54</t>
+          <t>1,53; 2,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,5</t>
+          <t>3,33; 4,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 8,95</t>
+          <t>5,31; 8,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 4,42</t>
+          <t>2,68; 4,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,27</t>
+          <t>2,65; 3,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,0; 7,14</t>
+          <t>4,82; 7,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,34</t>
+          <t>2,21; 3,36</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante la depresión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1797</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14597</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2399</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5787</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30847</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10193</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>826; 3328</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7996; 23380</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1823; 9076</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1368; 4085</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9993; 24742</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2960; 10210</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2626; 6117</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21805; 42564</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5984; 15892</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13466</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5043</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2916</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14082</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4845</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27548</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8251</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>958; 3648</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7630; 21597</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2473; 9823</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1710; 4557</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9172; 21449</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1429; 6458</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3317; 7201</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19908; 37153</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4949; 13456</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3699</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15029</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6070</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9165</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4501</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7496</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24195</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10571</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2351; 5773</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2774; 34902</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2993; 10921</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2451; 5804</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5509; 14453</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2051; 8560</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5318; 10407</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7092; 48208</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6124; 16208</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29869</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8126</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36773</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15397</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13126</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>66642</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21066</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3196; 7469</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20782; 42095</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2761; 9595</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5869; 10716</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13331; 58610</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9758; 22415</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10338; 16811</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>37398; 88144</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14209; 28864</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12393</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7160</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47338</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6789</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8577</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>59731</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8889</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>603; 2898</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6451; 20552</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>552; 4869</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5205; 9634</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26367; 61430</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3654; 11932</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6345; 11325</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>41727; 75143</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4999; 14042</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10286</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4507</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>43833</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4940</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>54119</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1627</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4635; 22742</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1715</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2877; 6686</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>33909; 57885</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4526</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3280; 7494</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>41037; 73076</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4578</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14275</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>95640</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>23680</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>28905</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>167441</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>36613</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>43180</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>263082</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>60293</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11062; 17738</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>63216; 120937</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>17479; 32626</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>24776; 33930</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>117102; 195366</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>28762; 46777</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>37750; 49006</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>206388; 305061</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>48919; 74378</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_DEP-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión</t>
+          <t>Vulnerabilidad ante la depresión (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión</t>
+          <t>Vulnerabilidad ante la depresión (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_DEP-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,29</t>
+          <t>0,47; 1,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,39</t>
+          <t>2,35; 6,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,85</t>
+          <t>0,95; 2,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,28</t>
+          <t>3,53; 8,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,12</t>
+          <t>0,88; 2,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,4</t>
+          <t>3,24; 6,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,5</t>
+          <t>1,29; 4,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,66</t>
+          <t>2,5; 6,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,18</t>
+          <t>1,55; 4,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,25</t>
+          <t>3,47; 8,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,79</t>
+          <t>1,7; 3,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,36</t>
+          <t>3,32; 6,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,55</t>
+          <t>1,22; 3,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,35</t>
+          <t>0,91; 7,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,18</t>
+          <t>4,5; 10,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 14,81</t>
+          <t>5,2; 14,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,61</t>
+          <t>2,45; 4,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 8,42</t>
+          <t>1,15; 8,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,39</t>
+          <t>1,91; 4,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,85</t>
+          <t>3,96; 8,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,03</t>
+          <t>3,2; 5,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 9,22</t>
+          <t>2,18; 9,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 4,83</t>
+          <t>2,93; 4,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,52</t>
+          <t>3,16; 7,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,8</t>
+          <t>0,55; 2,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 9,75</t>
+          <t>2,98; 9,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,26</t>
+          <t>4,24; 8,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 14,53</t>
+          <t>5,96; 14,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,42</t>
+          <t>3,16; 5,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 11,86</t>
+          <t>6,3; 12,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 13,64</t>
+          <t>2,34; 13,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,67</t>
+          <t>1,88; 4,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,8</t>
+          <t>6,72; 11,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,6</t>
+          <t>1,51; 3,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,12</t>
+          <t>6,43; 10,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,61</t>
+          <t>1,43; 2,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,82</t>
+          <t>3,01; 5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,33; 4,56</t>
+          <t>3,16; 4,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,86</t>
+          <t>5,64; 8,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,44</t>
+          <t>2,44; 3,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,12</t>
+          <t>4,76; 7,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>1564</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>826; 3328</t>
+          <t>767; 3037</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7996; 23380</t>
+          <t>8606; 23283</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1368; 4085</t>
+          <t>1596; 4573</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9993; 24742</t>
+          <t>10550; 24757</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2626; 6117</t>
+          <t>2924; 6657</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21805; 42564</t>
+          <t>21535; 41905</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>2191</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>5369</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>958; 3648</t>
+          <t>1168; 4000</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7630; 21597</t>
+          <t>8089; 21829</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1710; 4557</t>
+          <t>1899; 5247</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9172; 21449</t>
+          <t>9020; 20950</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3317; 7201</t>
+          <t>3626; 7771</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19908; 37153</t>
+          <t>19388; 37737</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7496</t>
+          <t>7396</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2351; 5773</t>
+          <t>1874; 4700</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2774; 34902</t>
+          <t>4321; 35173</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2451; 5804</t>
+          <t>2788; 6306</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5509; 14453</t>
+          <t>5074; 14150</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5318; 10407</t>
+          <t>5285; 9983</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7092; 48208</t>
+          <t>6581; 47260</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>4890</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8126</t>
+          <t>7923</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13126</t>
+          <t>12813</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3196; 7469</t>
+          <t>3264; 6995</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20782; 42095</t>
+          <t>21223; 42951</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5869; 10716</t>
+          <t>5864; 10634</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13331; 58610</t>
+          <t>13868; 58742</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10338; 16811</t>
+          <t>10363; 16300</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37398; 88144</t>
+          <t>37069; 87037</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>7545</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8577</t>
+          <t>8536</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>603; 2898</t>
+          <t>408; 1999</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6451; 20552</t>
+          <t>6275; 20750</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5205; 9634</t>
+          <t>5308; 10138</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>26367; 61430</t>
+          <t>25208; 59767</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6345; 11325</t>
+          <t>6297; 11141</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>41727; 75143</t>
+          <t>39889; 76420</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4507</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4940</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1627</t>
+          <t>0; 1982</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4635; 22742</t>
+          <t>3899; 22046</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2877; 6686</t>
+          <t>2299; 5439</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33909; 57885</t>
+          <t>32944; 56759</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3280; 7494</t>
+          <t>2677; 6115</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>41037; 73076</t>
+          <t>42246; 69434</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14275</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>28905</t>
+          <t>29481</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>43180</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11062; 17738</t>
+          <t>10105; 16276</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>63216; 120937</t>
+          <t>62487; 121772</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>24776; 33930</t>
+          <t>24785; 34395</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>117102; 195366</t>
+          <t>124449; 198383</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>37750; 49006</t>
+          <t>36413; 48049</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>206388; 305061</t>
+          <t>203864; 302906</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_DEP-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,96%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,7%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>1,34%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,64%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,26; 6,19</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 3,07</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,47; 1,87</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 6,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 3,07</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>3,79; 8,64</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 3,69</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,95; 2,71</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 8,28</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 3,69</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>3,32; 6,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 2,78</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,88; 2,01</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,24; 6,3</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 2,78</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2,43%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,59%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>2,52%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,63; 7,14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 5,03</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1,29; 4,43</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 6,74</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 5,03</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,42; 7,64</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 2,8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,55; 4,28</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 8,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 2,8</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,4; 6,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 3,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>1,7; 3,65</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 6,46</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 3,16</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>6,99%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>3,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,85; 10,17</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 6,04</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,22; 3,06</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 7,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 6,04</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,9; 13,55</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 10,34</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>4,5; 10,18</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>5,2; 14,5</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 10,34</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>4,99; 10,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 6,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2,45; 4,64</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 8,26</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 6,15</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,87%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,57%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,84%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>4,33%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,78%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>3,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,03; 8,09</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 3,11</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,91; 4,1</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 8,01</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 3,11</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>6,54; 10,52</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 7,08</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,2; 5,81</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 9,24</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,08; 7,08</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>5,65; 8,5</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 4,62</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2,93; 4,61</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 7,43</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 4,62</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,34%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>6,02%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,38%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4,29%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>2,62; 8,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 3,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,55; 2,71</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 9,85</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 3,23</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>10,58; 16,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 7,69</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>4,24; 8,09</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 14,14</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 7,69</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>8,34; 12,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 4,59</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>3,16; 5,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 12,06</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 4,59</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,01%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,17%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>8,71%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>2,97%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,94%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,13%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>2,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,23%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2,66; 13,45</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 18,35</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,0; 3,59</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 13,22</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 18,35</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>6,62; 11,22</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 39,58</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>1,88; 4,44</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 11,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 39,58</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>6,45; 10,51</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 22,03</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1,51; 3,44</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,43; 10,56</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 22,03</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,88%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,6%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>3,76%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>2,87%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,18; 6,31</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 2,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,43; 2,31</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 5,86</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 2,86</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>7,59; 9,65</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 4,36</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>3,16; 4,39</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>5,64; 8,99</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 4,36</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>6,23; 7,72</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 3,36</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>2,44; 3,23</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,76; 7,07</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 3,36</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>15143</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1564</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>14597</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>18836</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5787</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>2875</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>16250</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5787</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>33979</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10193</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>4439</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>30847</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>10193</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8897; 24434</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1823; 9076</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>767; 3037</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8606; 23283</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1823; 9076</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>12421; 28294</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2960; 10210</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1596; 4573</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10550; 24757</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2960; 10210</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>23973; 46007</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5984; 15892</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>2924; 6657</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>21535; 41905</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5984; 15892</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>14818</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5043</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2191</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13466</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5043</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>15068</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3178</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>14082</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3208</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>29886</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8251</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>5369</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>27548</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>8251</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>9044; 24589</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2473; 9823</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1168; 4000</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8089; 21829</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2473; 9823</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>9810; 21929</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1429; 6458</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1899; 5247</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9020; 20950</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1429; 6458</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>21452; 40318</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4949; 13456</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3626; 7771</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>19388; 37737</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4949; 13456</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>16685</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6070</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>3068</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>15029</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6070</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>9884</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4501</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4328</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>9165</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4501</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>26569</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10571</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>7396</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>24195</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>10571</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9990; 26408</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2993; 10921</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1874; 4700</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4321; 35173</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2993; 10921</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5463; 15105</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2051; 8560</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2788; 6306</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5074; 14150</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2051; 8560</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>18504; 37507</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6124; 16208</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5285; 9983</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6581; 47260</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6124; 16208</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>75</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>34520</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4890</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>29869</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5669</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>40716</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15397</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>7923</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>36773</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>15397</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>75236</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21066</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>12813</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>66642</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>21066</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>24562; 49353</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2761; 9595</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>3264; 6995</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>21223; 42951</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2761; 9595</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>32011; 51486</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9758; 22415</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>5864; 10634</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>13868; 58742</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>9758; 22415</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>62069; 93389</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14209; 28864</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>10363; 16300</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>37069; 87037</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>14209; 28864</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>53</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>13172</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>990</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>12393</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>53696</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6789</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>7545</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>47338</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>6789</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>66868</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8889</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>8536</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>59731</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>8889</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>6617; 21748</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>552; 4869</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>408; 1999</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>6275; 20750</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>552; 4869</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>43001; 65152</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3654; 11932</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>5308; 10138</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>25208; 59767</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>3654; 11932</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>54988; 82171</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4999; 14042</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>6297; 11141</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>39889; 76420</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>4999; 14042</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>11106</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>555</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>10286</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>394</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>47697</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>3631</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>43833</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>58802</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>4186</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>54119</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1323</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>4501; 22804</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1715</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>0; 1982</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>3899; 22046</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0; 1715</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>36252; 61436</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4526</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>2299; 5439</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>32944; 56759</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4526</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>46268; 75386</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4578</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>2677; 6115</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>42246; 69434</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4578</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>175</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>253</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>376</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>105444</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>23680</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>13259</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>95640</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>23680</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>185896</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>36613</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>29481</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>167441</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>36613</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>291340</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>60293</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>42740</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>263082</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>60293</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>84800; 128143</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17479; 32626</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>10105; 16276</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>62487; 121772</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>17479; 32626</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>164665; 209440</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>28762; 46777</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>24785; 34395</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>124449; 198383</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>28762; 46777</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>261646; 324313</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>48919; 74378</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>36413; 48049</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>203864; 302906</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>48919; 74378</t>
         </is>
       </c>
     </row>
